--- a/src/excel/basic.xlsx
+++ b/src/excel/basic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri003\OneDrive\ドキュメント\Programming\Python3\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edd699a90b6829a3/ドキュメント/Programming/Python3/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B313FCF9-437B-45AD-9D52-BA0395E99A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{072AFF32-4650-4319-ACB2-C2C4BE90570F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24300" windowHeight="15315" xr2:uid="{18364EE7-2C38-4FA9-8536-CCEAA63C3626}"/>
+    <workbookView xWindow="525" yWindow="525" windowWidth="15015" windowHeight="15315" xr2:uid="{A19596FC-AE5F-4CAC-9871-BA1B8BFD47B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2E76F6-598F-4F3E-8882-05A9E6D48DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD0839-8F14-4FC6-A86E-2DD831F35F3D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/src/excel/basic.xlsx
+++ b/src/excel/basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edd699a90b6829a3/ドキュメント/Programming/Python3/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{072AFF32-4650-4319-ACB2-C2C4BE90570F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDC0A7F-51E5-4661-9C7A-11E3AF6FAA0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="525" windowWidth="15015" windowHeight="15315" xr2:uid="{A19596FC-AE5F-4CAC-9871-BA1B8BFD47B8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24300" windowHeight="15315" xr2:uid="{763BC9BE-D282-4692-9195-6FBE65159B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD0839-8F14-4FC6-A86E-2DD831F35F3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8C123D-FE35-477B-925D-B19EC108A3F8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/src/excel/basic.xlsx
+++ b/src/excel/basic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edd699a90b6829a3/ドキュメント/Programming/Python3/src/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri003\Documents\Programming\Python3\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDC0A7F-51E5-4661-9C7A-11E3AF6FAA0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06603A3-5EE7-4097-80F4-07447C679C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24300" windowHeight="15315" xr2:uid="{763BC9BE-D282-4692-9195-6FBE65159B21}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24300" windowHeight="15315" xr2:uid="{AEBDDA8A-1F43-4782-9F67-F05A6448E1FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8C123D-FE35-477B-925D-B19EC108A3F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C37BC-02B9-400E-A7A4-3ABA9AC03CF9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
